--- a/data/Eur-lex (annotated decision).xlsx
+++ b/data/Eur-lex (annotated decision).xlsx
@@ -1,16 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10709"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pedrohserrano/eu-judgements-analysis/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90ACF5F4-2C43-A248-92FA-5C3933743FDB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-460" windowWidth="27320" windowHeight="15360" tabRatio="500"/>
+    <workbookView xWindow="2220" yWindow="5940" windowWidth="19740" windowHeight="9320" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample RQs" sheetId="2" r:id="rId1"/>
     <sheet name="Eur-Lex (annotated)" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140000"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -386,8 +392,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -495,6 +501,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -819,14 +833,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="56.33203125" customWidth="1"/>
     <col min="3" max="3" width="45.33203125" customWidth="1"/>
@@ -944,15 +958,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
+    <col min="2" max="2" width="49.1640625" customWidth="1"/>
     <col min="3" max="3" width="54.5" style="2" customWidth="1"/>
     <col min="4" max="4" width="10.83203125" style="3"/>
   </cols>
@@ -1027,7 +1042,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="30">
+    <row r="11" spans="1:5" ht="32">
       <c r="B11" s="4" t="s">
         <v>14</v>
       </c>
@@ -1101,7 +1116,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="30">
+    <row r="18" spans="1:4" ht="32">
       <c r="B18" s="4" t="s">
         <v>32</v>
       </c>
@@ -1207,7 +1222,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="30">
+    <row r="29" spans="1:4" ht="32">
       <c r="B29" s="4" t="s">
         <v>58</v>
       </c>
@@ -1228,7 +1243,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E5" r:id="rId1"/>
+    <hyperlink ref="E5" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
